--- a/biology/Zoologie/Hypothyris/Hypothyris.xlsx
+++ b/biology/Zoologie/Hypothyris/Hypothyris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypothyris est un genre de papillons de la famille des Nymphalidae et de la sous-famille des Danainae, de la tribu des Ithomiini, sous tribu des Napeogenina.
 </t>
@@ -511,16 +523,12 @@
           <t>Historique et  dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Hypothyris a été décrit par l'entomologiste allemand Jacob Hübner en 1821 [1]
-L'espèce type pour le genre est Hypothyris ninonia (Hübner, 1806)
-Syonnymie
-Dynothea (Reakirt, 1866)[2]
-Mansueta (d'Almeida, 1922)[3]
-Pseudomechanitis (Röber, 1930)[4]
-Garsauritis (d'Almeida, 1938)[5]
-Rhodussa (d'Almeida, 1939)[6]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Hypothyris a été décrit par l'entomologiste allemand Jacob Hübner en 1821 
+L'espèce type pour le genre est Hypothyris ninonia (Hübner, 1806)</t>
         </is>
       </c>
     </row>
@@ -545,12 +553,54 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et  dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Syonnymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dynothea (Reakirt, 1866)
+Mansueta (d'Almeida, 1922)
+Pseudomechanitis (Röber, 1930)
+Garsauritis (d'Almeida, 1938)
+Rhodussa (d'Almeida, 1939)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hypothyris</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypothyris</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des espèces[7]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces
 Hypothyris anastasia (Bates, 1862)
 Hypothyris cantobrica (Hewitson, 1876)
 Hypothyris connexa (Hall, 1939)
@@ -563,7 +613,7 @@
 Hypothyris mamercus (Hewitson, 1869)
 Hypothyris mansuetus (Hewitson, 1860)
 Hypothyris moebiusi (Haensch, 1903)
-Hypothyris ninonia (Hübner, [1806]) Espèce type pour le genre
+Hypothyris ninonia (Hübner, ) Espèce type pour le genre
 Hypothyris semifulva (Salvin, 1869)
 Hypothyris thea (Hewitson, 1852)
 Hypothyris vallonia (Hewitson, 1853)
@@ -573,31 +623,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Hypothyris</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hypothyris</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils résident en Amérique du Sud.
 Sur les autres projets Wikimedia :
